--- a/Pérez-Jiménez D.xlsx
+++ b/Pérez-Jiménez D.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmachin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmachin\Desktop\Git\citation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>Cites</t>
   </si>
@@ -141,18 +141,6 @@
     <t>HTML</t>
   </si>
   <si>
-    <t>D Pérez-Jiménez, N Varas-Díaz, I Serrano-García…</t>
-  </si>
-  <si>
-    <t>Instrumento de informacion, motivacion y conductas-Espanol (IIMC-E)</t>
-  </si>
-  <si>
-    <t>San Juan, Puerto Rico: …</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?cites=5078244442648712606&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
-  </si>
-  <si>
     <t>D Pérez-Jiménez, I Serrano-García…</t>
   </si>
   <si>
@@ -168,21 +156,12 @@
     <t>http://scholar.google.com/scholar?cites=6438812163894088754&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
   </si>
   <si>
-    <t>D Pérez Jiménez, Y Diago Garrido…</t>
-  </si>
-  <si>
-    <t>Enfoque actual de la salud ambiental</t>
-  </si>
-  <si>
     <t>Revista Cubana de …</t>
   </si>
   <si>
     <t>scielo.sld.cu</t>
   </si>
   <si>
-    <t>http://scholar.google.com/scholar?cites=5268104466528283292&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
-  </si>
-  <si>
     <t>RM García Pérez, RG García Roche…</t>
   </si>
   <si>
@@ -192,15 +171,6 @@
     <t>http://scholar.google.com/scholar?cites=7298584801600518495&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
   </si>
   <si>
-    <t>D Pérez Jiménez, S Jiménez Acosta…</t>
-  </si>
-  <si>
-    <t>La salud en la vivienda, enfoque alimentario-nutricional</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?cites=15180655167515924467&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
-  </si>
-  <si>
     <t>D Pérez-Jiménez…</t>
   </si>
   <si>
@@ -234,57 +204,6 @@
     <t>http://scholar.google.com/scholar?cites=30386578064263565&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
   </si>
   <si>
-    <t>DM Herrera Travieso, A Rodríguez Salvá…</t>
-  </si>
-  <si>
-    <t>Caracterización del cuidado informal de pacientes dependientes en el policlínico" Héroes de Girón" en el 2009</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?cites=14080356981350683187&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
-  </si>
-  <si>
-    <t>Instrumento de Información</t>
-  </si>
-  <si>
-    <t>Motivación y Conductas- …</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?cites=13400990567147551320&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
-  </si>
-  <si>
-    <t>RM García Pérez, RG García Roche, D Pérez Jiménez…</t>
-  </si>
-  <si>
-    <t>su relación con la calidad de vida Cuba</t>
-  </si>
-  <si>
-    <t>Rev Cubana Hig Epidemiol</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?cites=2636943228793932376&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
-  </si>
-  <si>
-    <t>C Vázquez Rivera, M Figueroa Rodríguez…</t>
-  </si>
-  <si>
-    <t>International community psychology: Shared agendas in diversity</t>
-  </si>
-  <si>
-    <t>Actividades de Formaciόn …</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?cites=3695345108175154438&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
-  </si>
-  <si>
-    <t>D Pérez Jiménez, P Mas Bermejo, V Prieto Díaz…</t>
-  </si>
-  <si>
-    <t>relaciones geográficas entre salud y ambiente</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?cites=17300993233270499633&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
-  </si>
-  <si>
     <t>A Hernández-Hernández, D Pérez-Jiménez</t>
   </si>
   <si>
@@ -297,27 +216,6 @@
     <t>http://scholar.google.com/scholar?cites=7107168573032392896&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
   </si>
   <si>
-    <t>D Pérez-Jiménez</t>
-  </si>
-  <si>
-    <t>Una mirada a las metas y valores de la Psicología Social-Comunitaria:¿ Habremos cerrado la brecha entre la teoría y la práctica</t>
-  </si>
-  <si>
-    <t>… oral en la 49na Convención de la …</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?cites=1004628647158086664&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
-  </si>
-  <si>
-    <t>C Vázquez Rivera, D Pérez Jiménez…</t>
-  </si>
-  <si>
-    <t>Psicología Comunitaria Internacional: Agendas Compartidas en la Diversidad</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?cites=15427569109207666690&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
-  </si>
-  <si>
     <t>D Pérez-Jiménez, I Serrano-García</t>
   </si>
   <si>
@@ -342,15 +240,6 @@
     <t>http://scholar.google.com/scholar?cites=6413522440550460532&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
   </si>
   <si>
-    <t>DP Jiménez, NV Díaz, I Serrano-García, FNC Bou…</t>
-  </si>
-  <si>
-    <t>Instrumento de Información, Motivación y Conductas-Español (IIMC-E)</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?cites=7524802199952568125&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
-  </si>
-  <si>
     <t>MCG Díaz, VB Directores, DMJP Jiménez…</t>
   </si>
   <si>
@@ -375,36 +264,6 @@
     <t>http://scholar.google.com/scholar?cites=4131373265167347397&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
   </si>
   <si>
-    <t>M Santiago-Rivas, D Pérez-Jiménez</t>
-  </si>
-  <si>
-    <t>Modeling HIV prevention strategies among two Puerto Rican samples</t>
-  </si>
-  <si>
-    <t>Revista interamericana de …</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?cites=6633163122226740663&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
-  </si>
-  <si>
-    <t>[HTML][HTML] [Sexual Behavior and Self-Efficacy for the Negotiation of Safer Sex in Heterosexual Persons.]</t>
-  </si>
-  <si>
-    <t>europepmc.org</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?cites=9950070968451696473&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en&amp;num=20</t>
-  </si>
-  <si>
-    <t>D Pérez Jiménez</t>
-  </si>
-  <si>
-    <t>Estudio y diseño de una planta piloto de aprovechamiento energético de biogás procedente de la biometanización de residuos orgánicos</t>
-  </si>
-  <si>
-    <t>academica-e.unavarra.es</t>
-  </si>
-  <si>
     <t>M del Carmen Cabrera-Aponte…</t>
   </si>
   <si>
@@ -417,18 +276,6 @@
     <t>http://scholar.google.com/scholar?q=related:Vq_DFr955fsJ:scholar.google.com/&amp;hl=en&amp;num=20&amp;as_sdt=0,5&amp;as_ylo=1990&amp;as_yhi=2015</t>
   </si>
   <si>
-    <t>D Pérez-Jiménez, AE Montalvo, MCC Aponte</t>
-  </si>
-  <si>
-    <t>Desarrollo de una intervención grupal para la prevención del VIH en parejas heterosexuales//Development of a group intervention for HIV prevention in …</t>
-  </si>
-  <si>
-    <t>Revista Puertorriqueña de Psicología</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?q=related:oqFCNBdzdMQJ:scholar.google.com/&amp;hl=en&amp;num=20&amp;as_sdt=0,5&amp;as_ylo=1990&amp;as_yhi=2015</t>
-  </si>
-  <si>
     <t>Estereotipos Sexuales y su Relación con Conductas Sexuales Riesgosas</t>
   </si>
   <si>
@@ -438,72 +285,6 @@
     <t>http://scholar.google.com/scholar?q=related:rkanXunmyZEJ:scholar.google.com/&amp;hl=en&amp;num=20&amp;as_sdt=0,5&amp;as_ylo=1990&amp;as_yhi=2015</t>
   </si>
   <si>
-    <t>D Pérez Jiménez, AR Carrasco…</t>
-  </si>
-  <si>
-    <t>Caracterización del embarazo en la adolescencia. Barrio La Victoria, Barquisimeto, Estado Lara. Venezuela. 2008-2009. Dra. Dany de Jesús Rodríguez …</t>
-  </si>
-  <si>
-    <t>Gaceta Médica Espirituana</t>
-  </si>
-  <si>
-    <t>bvs.sld.cu</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?q=related:gjracMhpjZoJ:scholar.google.com/&amp;hl=en&amp;num=20&amp;as_sdt=0,5&amp;as_ylo=1990&amp;as_yhi=2015</t>
-  </si>
-  <si>
-    <t>DM Pérez Jiménez, LB Peñaloza Villalobos, O Parra…</t>
-  </si>
-  <si>
-    <t>Sensibilización estética y lúdica a la escultura pública de Bogotá</t>
-  </si>
-  <si>
-    <t>intellectum.unisabana.edu.co</t>
-  </si>
-  <si>
-    <t>http://intellectum.unisabana.edu.co/handle/10818/5685</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?q=related:FdHcfmtsW5cJ:scholar.google.com/&amp;hl=en&amp;num=20&amp;as_sdt=0,5&amp;as_ylo=1990&amp;as_yhi=2015</t>
-  </si>
-  <si>
-    <t>D Pérez Jiménez, A Rodríguez Salvá…</t>
-  </si>
-  <si>
-    <t>Caracterización de la sobrecarga y de los estilos de afrontamiento en el cuidador informal de pacientes dependientes</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?q=related:LNW3j6HkL28J:scholar.google.com/&amp;hl=en&amp;num=20&amp;as_sdt=0,5&amp;as_ylo=1990&amp;as_yhi=2015</t>
-  </si>
-  <si>
-    <t>JC Gómez, D Pérez-Jiménez, JMO Guzmán</t>
-  </si>
-  <si>
-    <t>Relación entre La Música, el Estrés y el Rendimiento Académico en Un Grupo de Estudiantes Universitarios</t>
-  </si>
-  <si>
-    <t>rsych.com</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?q=related:GjfKnf98OqMJ:scholar.google.com/&amp;hl=en&amp;num=20&amp;as_sdt=0,5&amp;as_ylo=1990&amp;as_yhi=2015</t>
-  </si>
-  <si>
-    <t>D Pérez-Jiménez, I Serrano-Garcia…</t>
-  </si>
-  <si>
-    <t>VIH/SIDA</t>
-  </si>
-  <si>
-    <t>CIENCIAS DE LA …</t>
-  </si>
-  <si>
-    <t>bookshelf.albizu.edu</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?q=related:bU0pqekiMwcJ:scholar.google.com/&amp;hl=en&amp;num=20&amp;as_sdt=0,5&amp;as_ylo=1990&amp;as_yhi=2015</t>
-  </si>
-  <si>
     <t>A pilot intervention to promote safer sex in heterosexual Puerto Rican couples.</t>
   </si>
   <si>
@@ -514,82 +295,13 @@
   </si>
   <si>
     <t>http://scholar.google.com/scholar?cluster=2635807701547728018&amp;hl=en&amp;num=20&amp;as_sdt=0,5&amp;as_ylo=1990&amp;as_yhi=2015</t>
-  </si>
-  <si>
-    <t>D Pérez-Jiménez, SM Rodríguez-Medina…</t>
-  </si>
-  <si>
-    <t>Campaña electoral de altura: Fomentando la participación ciudadana desde una organización profesional//Clean election campaign: How to foster citizen …</t>
-  </si>
-  <si>
-    <t>Revista Puertorriqueña de …</t>
-  </si>
-  <si>
-    <t>D Pérez-Jiménez, RE Orengo-Aguayo</t>
-  </si>
-  <si>
-    <t>Estereotipos Sexuales y su Relación con Conductas Sexuales Riesgosas//Sex Stereotypes and Their Relationship to Risky Sexual Behaviors</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?q=related:4k5RvTKpSUwJ:scholar.google.com/&amp;hl=en&amp;num=20&amp;as_sdt=0,5&amp;as_ylo=1990&amp;as_yhi=2015</t>
-  </si>
-  <si>
-    <t>JS Aubrey, R Barnes, S Basow, J Becker, A Benbow…</t>
-  </si>
-  <si>
-    <t>Persons listed below have reviewed manuscripts for Parts I, II, and III of the Special Issue Fiction, Fashion, and Function: Gendered Experiences of Women's and …</t>
-  </si>
-  <si>
-    <t>Sex Roles</t>
-  </si>
-  <si>
-    <t>Springer</t>
-  </si>
-  <si>
-    <t>http://www.springerlink.com/index/3810622734562720.pdf</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?cluster=16260294213893850499&amp;hl=en&amp;num=20&amp;as_sdt=0,5&amp;as_ylo=1990&amp;as_yhi=2015</t>
-  </si>
-  <si>
-    <t>D Pérez Jiménez, B Corona Miranda…</t>
-  </si>
-  <si>
-    <t>Caracterización del proceso hospitalario de atención a la morbilidad materna extremadamente grave</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?q=related:5VXj5755t8oJ:scholar.google.com/&amp;hl=en&amp;num=20&amp;as_sdt=0,5&amp;as_ylo=1990&amp;as_yhi=2015</t>
-  </si>
-  <si>
-    <t>D Pérez Jiménez, P Más Bermejo…</t>
-  </si>
-  <si>
-    <t>Geosalud: relaciones geográficas entre salud y ambiente</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?q=related:MDhb86Lp_EIJ:scholar.google.com/&amp;hl=en&amp;num=20&amp;as_sdt=0,5&amp;as_ylo=1990&amp;as_yhi=2015</t>
-  </si>
-  <si>
-    <t>DF Pérez Jiménez</t>
-  </si>
-  <si>
-    <t>Dietas hipocolesterolemiantes,¿ para quién?.</t>
-  </si>
-  <si>
-    <t>Cunicultura</t>
-  </si>
-  <si>
-    <t>europa.sim.ucm.es</t>
-  </si>
-  <si>
-    <t>http://scholar.google.com/scholar?cluster=11623675283995816605&amp;hl=en&amp;num=20&amp;as_sdt=0,5&amp;as_ylo=1990&amp;as_yhi=2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,6 +432,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1022,7 +742,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1065,12 +785,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1104,6 +826,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1114,7 +837,11 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1125,6 +852,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K19" totalsRowShown="0">
+  <autoFilter ref="A1:K19"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Cites"/>
+    <tableColumn id="2" name="Authors"/>
+    <tableColumn id="3" name="Title"/>
+    <tableColumn id="4" name="Year"/>
+    <tableColumn id="5" name="Source"/>
+    <tableColumn id="6" name="Publisher"/>
+    <tableColumn id="7" name="ArticleURL"/>
+    <tableColumn id="8" name="CitesURL"/>
+    <tableColumn id="9" name="GSRank"/>
+    <tableColumn id="10" name="QueryDate" dataDxfId="0"/>
+    <tableColumn id="11" name="Type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1390,25 +1137,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="148" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="6" max="6" width="0.140625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="127.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1448,31 +1192,31 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D2">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
+      <c r="G2" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1">
         <v>42285</v>
@@ -1480,63 +1224,60 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D3">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1">
         <v>42285</v>
       </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>2009</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <v>2007</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
         <v>42285</v>
@@ -1544,150 +1285,153 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D5">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1">
         <v>42285</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1">
         <v>42285</v>
       </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1">
         <v>42285</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D8">
-        <v>2009</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
+        <v>2003</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1">
         <v>42285</v>
       </c>
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D9">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J9" s="1">
         <v>42285</v>
@@ -1698,60 +1442,57 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D10">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1">
         <v>42285</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="D11">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1">
         <v>42285</v>
@@ -1762,92 +1503,89 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1">
         <v>42285</v>
       </c>
-      <c r="K12" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="I13">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1">
         <v>42285</v>
       </c>
       <c r="K13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>2009</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="I14">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1">
         <v>42285</v>
@@ -1861,60 +1599,60 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <v>2008</v>
+      </c>
+      <c r="E15" t="s">
         <v>71</v>
       </c>
-      <c r="C15" t="s">
+      <c r="H15" t="s">
         <v>72</v>
       </c>
-      <c r="D15">
-        <v>2012</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" t="s">
-        <v>73</v>
-      </c>
       <c r="I15">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J15" s="1">
         <v>42285</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="I16">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J16" s="1">
         <v>42285</v>
-      </c>
-      <c r="K16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1922,22 +1660,22 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D17">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I17">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1">
         <v>42285</v>
@@ -1948,841 +1686,80 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D18">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="I18">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1">
         <v>42285</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D19">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="I19">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J19" s="1">
         <v>42285</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20">
-        <v>2006</v>
-      </c>
-      <c r="E20" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20">
-        <v>19</v>
-      </c>
-      <c r="J20" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21">
-        <v>2002</v>
-      </c>
-      <c r="F21" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21">
-        <v>20</v>
-      </c>
-      <c r="J21" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22">
-        <v>2009</v>
-      </c>
-      <c r="E22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22">
-        <v>21</v>
-      </c>
-      <c r="J22" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23">
-        <v>2000</v>
-      </c>
-      <c r="E23" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23">
-        <v>22</v>
-      </c>
-      <c r="J23" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24">
-        <v>2008</v>
-      </c>
-      <c r="E24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" t="s">
-        <v>106</v>
-      </c>
-      <c r="I24">
-        <v>23</v>
-      </c>
-      <c r="J24" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25">
-        <v>2004</v>
-      </c>
-      <c r="H25" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25">
-        <v>24</v>
-      </c>
-      <c r="J25" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26">
-        <v>2003</v>
-      </c>
-      <c r="F26" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26">
-        <v>25</v>
-      </c>
-      <c r="J26" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27">
-        <v>2008</v>
-      </c>
-      <c r="E27" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" t="s">
-        <v>117</v>
-      </c>
-      <c r="I27">
-        <v>26</v>
-      </c>
-      <c r="J27" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28">
-        <v>2009</v>
-      </c>
-      <c r="E28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" t="s">
-        <v>121</v>
-      </c>
-      <c r="I28">
-        <v>27</v>
-      </c>
-      <c r="J28" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29">
-        <v>2009</v>
-      </c>
-      <c r="E29" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" t="s">
-        <v>124</v>
-      </c>
-      <c r="I29">
-        <v>28</v>
-      </c>
-      <c r="J29" s="1">
-        <v>42285</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30">
-        <v>2006</v>
-      </c>
-      <c r="F30" t="s">
-        <v>127</v>
-      </c>
-      <c r="I30">
-        <v>29</v>
-      </c>
-      <c r="J30" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31">
-        <v>2009</v>
-      </c>
-      <c r="E31" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" t="s">
-        <v>131</v>
-      </c>
-      <c r="I31">
-        <v>30</v>
-      </c>
-      <c r="J31" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32">
-        <v>2014</v>
-      </c>
-      <c r="E32" t="s">
-        <v>134</v>
-      </c>
-      <c r="H32" t="s">
-        <v>135</v>
-      </c>
-      <c r="I32">
-        <v>31</v>
-      </c>
-      <c r="J32" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33">
-        <v>2012</v>
-      </c>
-      <c r="E33" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" t="s">
-        <v>138</v>
-      </c>
-      <c r="I33">
-        <v>32</v>
-      </c>
-      <c r="J33" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34">
-        <v>2010</v>
-      </c>
-      <c r="E34" t="s">
-        <v>141</v>
-      </c>
-      <c r="F34" t="s">
-        <v>142</v>
-      </c>
-      <c r="H34" t="s">
-        <v>143</v>
-      </c>
-      <c r="I34">
-        <v>33</v>
-      </c>
-      <c r="J34" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" t="s">
-        <v>145</v>
-      </c>
-      <c r="D35">
-        <v>2013</v>
-      </c>
-      <c r="F35" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" t="s">
-        <v>147</v>
-      </c>
-      <c r="H35" t="s">
-        <v>148</v>
-      </c>
-      <c r="I35">
-        <v>34</v>
-      </c>
-      <c r="J35" s="1">
-        <v>42285</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>0</v>
-      </c>
-      <c r="B36" t="s">
-        <v>149</v>
-      </c>
-      <c r="C36" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36">
-        <v>2013</v>
-      </c>
-      <c r="E36" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" t="s">
-        <v>151</v>
-      </c>
-      <c r="I36">
-        <v>35</v>
-      </c>
-      <c r="J36" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>152</v>
-      </c>
-      <c r="C37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>154</v>
-      </c>
-      <c r="H37" t="s">
-        <v>155</v>
-      </c>
-      <c r="I37">
-        <v>36</v>
-      </c>
-      <c r="J37" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>158</v>
-      </c>
-      <c r="F38" t="s">
-        <v>159</v>
-      </c>
-      <c r="H38" t="s">
-        <v>160</v>
-      </c>
-      <c r="I38">
-        <v>37</v>
-      </c>
-      <c r="J38" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39">
-        <v>2014</v>
-      </c>
-      <c r="E39" t="s">
-        <v>162</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>163</v>
-      </c>
-      <c r="H39" t="s">
-        <v>164</v>
-      </c>
-      <c r="I39">
-        <v>38</v>
-      </c>
-      <c r="J39" s="1">
-        <v>42285</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40" t="s">
-        <v>166</v>
-      </c>
-      <c r="D40">
-        <v>2014</v>
-      </c>
-      <c r="E40" t="s">
-        <v>167</v>
-      </c>
-      <c r="I40">
-        <v>39</v>
-      </c>
-      <c r="J40" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>168</v>
-      </c>
-      <c r="C41" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41">
-        <v>2014</v>
-      </c>
-      <c r="E41" t="s">
-        <v>134</v>
-      </c>
-      <c r="H41" t="s">
-        <v>170</v>
-      </c>
-      <c r="I41">
-        <v>40</v>
-      </c>
-      <c r="J41" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42">
-        <v>2011</v>
-      </c>
-      <c r="E42" t="s">
-        <v>173</v>
-      </c>
-      <c r="F42" t="s">
-        <v>174</v>
-      </c>
-      <c r="G42" t="s">
-        <v>175</v>
-      </c>
-      <c r="H42" t="s">
-        <v>176</v>
-      </c>
-      <c r="I42">
-        <v>41</v>
-      </c>
-      <c r="J42" s="1">
-        <v>42285</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>177</v>
-      </c>
-      <c r="C43" t="s">
-        <v>178</v>
-      </c>
-      <c r="D43">
-        <v>2013</v>
-      </c>
-      <c r="E43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" t="s">
-        <v>52</v>
-      </c>
-      <c r="H43" t="s">
-        <v>179</v>
-      </c>
-      <c r="I43">
-        <v>42</v>
-      </c>
-      <c r="J43" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>180</v>
-      </c>
-      <c r="C44" t="s">
-        <v>181</v>
-      </c>
-      <c r="D44">
-        <v>2004</v>
-      </c>
-      <c r="E44" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" t="s">
-        <v>52</v>
-      </c>
-      <c r="H44" t="s">
-        <v>182</v>
-      </c>
-      <c r="I44">
-        <v>43</v>
-      </c>
-      <c r="J44" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>183</v>
-      </c>
-      <c r="C45" t="s">
-        <v>184</v>
-      </c>
-      <c r="D45">
-        <v>2008</v>
-      </c>
-      <c r="E45" t="s">
-        <v>185</v>
-      </c>
-      <c r="F45" t="s">
-        <v>186</v>
-      </c>
-      <c r="H45" t="s">
-        <v>187</v>
-      </c>
-      <c r="I45">
-        <v>44</v>
-      </c>
-      <c r="J45" s="1">
-        <v>42285</v>
-      </c>
-      <c r="K45" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:K45">
+    <sortCondition ref="B2:B45"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="G6" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>